--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,84 +43,87 @@
     <t>negative</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>frightening</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>bad</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -142,28 +145,31 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>first</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>wow</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
@@ -527,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -649,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -696,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -746,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9615384615384616</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9545454545454546</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>0.8333333333333334</v>
@@ -849,10 +855,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.631578947368421</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.6206896551724138</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,16 +1023,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.5166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.5066666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1152,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.3157894736842105</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.1818181818181818</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1238,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,13 +1252,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1264,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>0.1458333333333333</v>
@@ -1296,37 +1302,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>7</v>
       </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.03825136612021858</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1338,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1056</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1346,13 +1352,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.575</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1364,7 +1370,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <v>0.04280510018214936</v>
+      </c>
+      <c r="L18">
+        <v>47</v>
+      </c>
+      <c r="M18">
+        <v>47</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1051</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1372,13 +1402,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4710144927536232</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C19">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1390,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1398,25 +1428,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4375</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1424,13 +1454,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4285714285714285</v>
+        <v>0.45</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1442,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1476,13 +1506,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.425531914893617</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1494,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1502,13 +1532,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1520,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1528,7 +1558,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -1546,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1554,13 +1584,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3846153846153846</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1572,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1580,13 +1610,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3529411764705883</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1598,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1606,13 +1636,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3478260869565217</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1624,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1632,13 +1662,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.282051282051282</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1650,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1658,7 +1688,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1025641025641026</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -1676,6 +1706,32 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1025641025641026</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>70</v>
       </c>
     </row>
